--- a/Backend_women_makeup.xlsx
+++ b/Backend_women_makeup.xlsx
@@ -512,156 +512,152 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The Mirrored Unisex Salon</t>
+          <t>rashmi's make-up studio ಮೇಕ್-ಅಪ್ ಸ್ಟುಡಿಯೊ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ground Floor, Abhish Mall, near More Supermarket, Surathkal, Mangaluru</t>
+          <t>3d block, Bollaje padil, near infant mary school, Katipalla, Mangaluru</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
+          <t>Monday-Friday: 9:00 AM – 8:00 AM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>+91 824 350 0276</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>http://themirroredunisexsalon.com/?utm_source=gmb&amp;utm_medium=referral</t>
-        </is>
-      </c>
+          <t>+91 86607 27729</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3970264084842923578</t>
+          <t>https://maps.google.com/?cid=1672620235670044198</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B'Plus Professional Unisex Salon</t>
+          <t>UNIQUE PROFESSIONAL UNISEX SALON</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1st floor, Shanthi sadan, Surathkal, Mangaluru</t>
+          <t>Shop No F3, F4, 1st Floor, near Srinivas Hospital Adhidhan Land Mark Building, Mukka, Mangaluru</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:00 AM – 8:30 PM</t>
+          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>+91 77956 63111</t>
+          <t>+91 72048 81243</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2213864925948255164</t>
+          <t>https://maps.google.com/?cid=12990322004268924615</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Face glow ladies Beauty Parlour</t>
+          <t>MAKEOVER BY MEGHNA | MAKE-UP | SKIN | HAIR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coastal Arcade, Surathkal, Mangaluru</t>
+          <t>Matha Jyothi Building, opp. Srinivas Dental College, Mukka, Mangaluru</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Monday-Friday: 8:30 AM – 8:30 PM</t>
+          <t>Monday-Friday: 11:00 AM – 7:00 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>+91 97403 08545</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://face-glow-ladies-beauty-parlour.business.site/</t>
-        </is>
-      </c>
+          <t>+91 93808 68980</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=4752085954908933186</t>
+          <t>https://maps.google.com/?cid=18319764152662393285</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GLAMOUR LADIES BEAUTY SALON</t>
+          <t>LNS PRO-AESTHETIC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1st Floor, #12, Adhidan Land Mark Building, Mukka, Mangaluru</t>
+          <t>Rajashree Arcade Building, opp. to Vidhyadayanee School, Hosabettu, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Monday-Friday: 10:00 AM – 7:00 PM</t>
+          <t>Monday-Friday: 11:00 AM – 7:00 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>+91 81977 20400</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>+91 63626 10278</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/lns_pro_aesthetic?igsh=ZXZkbGlpa3N4M3ls&amp;utm_source=qr</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=17814378601412697077</t>
+          <t>https://maps.google.com/?cid=12577564285674250446</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAKEOVER BY MEGHNA | MAKE-UP | SKIN | HAIR</t>
+          <t>Yas Beauty lounge</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Matha Jyothi Building, opp. Srinivas Dental College, Mukka, Mangaluru</t>
+          <t>Agaramelu Rd, near HK Medical Chkkabettu, Krishnapura, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -672,30 +668,30 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Monday-Friday: 11:00 AM – 7:00 PM</t>
+          <t>Monday-Friday: 9:00 AM – 7:00 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>+91 93808 68980</t>
+          <t>+91 93536 51948</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=18319764152662393285</t>
+          <t>https://maps.google.com/?cid=13043520793036316794</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UNIQUE PROFESSIONAL UNISEX SALON</t>
+          <t>Brahmi Beauty Parlour</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Shop No F3, F4, 1st Floor, near Srinivas Hospital Adhidhan Land Mark Building, Mukka, Mangaluru</t>
+          <t>Katipalla, Mangaluru</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -706,224 +702,216 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
+          <t>Monday-Friday: 10:00 AM – 8:30 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>+91 72048 81243</t>
+          <t>+91 63647 71558</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12990322004268924615</t>
+          <t>https://maps.google.com/?cid=8939840050446087158</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rashmi's make-up studio ಮೇಕ್-ಅಪ್ ಸ್ಟುಡಿಯೊ</t>
+          <t>HORIZON BRIDAL MAKEUP STUDIO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3d block, Bollaje padil, near infant mary school, Katipalla, Mangaluru</t>
+          <t>2nd Floor, HNGC ICON CITY, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Monday-Friday: 9:00 AM – 8:00 AM</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>+91 86607 27729</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=1672620235670044198</t>
+          <t>https://maps.google.com/?cid=9228400268338505596</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ashwini's beauty saloon</t>
+          <t>Maruthi Cosmetics</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Naithangadi, Krishnapura, Surathkal, Kuthethur Colony</t>
+          <t>Shop no. 11 , Ground Floor, Kalyani City Gold Building, Hosabettu, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:30 AM – 8:00 PM</t>
+          <t>Monday-Friday: 9:00 AM – 9:30 PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>+91 79751 36842</t>
+          <t>+91 77606 18493</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://instagram.com/ashwini_s_beauty_saloon?igshid=Yzg5MTU1MDY=</t>
+          <t>https://mydukaan.io/6360458409</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7786938580125710858</t>
+          <t>https://maps.google.com/?cid=5281144486314527101</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HORIZON BRIDAL MAKEUP STUDIO</t>
+          <t>Sandhya’s Beauty Care Clinik</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2nd Floor, HNGC ICON CITY, Surathkal, Mangaluru</t>
+          <t>Old Post Office Rd, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>+91 96861 60365</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=9228400268338505596</t>
+          <t>https://maps.google.com/?cid=7857795109075466448</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Yas Beauty lounge</t>
+          <t>Hair Studio Surathkal - Men's Professional Saloon</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Agaramelu Rd, near HK Medical Chkkabettu, Krishnapura, Surathkal, Mangaluru</t>
+          <t>HNGC ICON CITY, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:00 AM – 7:00 PM</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>+91 93536 51948</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>Monday-Friday: 10:00 AM – 10:00 PM</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>http://thehsbrand.com/</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13043520793036316794</t>
+          <t>https://maps.google.com/?cid=12810264553391565663</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Maruthi Cosmetics</t>
+          <t>GLAMOUR LADIES BEAUTY SALON</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Shop no. 11 , Ground Floor, Kalyani City Gold Building, Hosabettu, Surathkal, Mangaluru</t>
+          <t>1st Floor, #12, Adhidan Land Mark Building, Mukka, Mangaluru</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:00 AM – 9:30 PM</t>
+          <t>Monday-Friday: 10:00 AM – 7:00 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>+91 77606 18493</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://mydukaan.io/6360458409</t>
-        </is>
-      </c>
+          <t>+91 81977 20400</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=5281144486314527101</t>
+          <t>https://maps.google.com/?cid=17814378601412697077</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sandhya’s Beauty Care Clinik</t>
+          <t>GLITZZ the fancy hub</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Old Post Office Rd, Surathkal, Mangaluru</t>
+          <t>Hosabettu, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
+          <t>Monday-Friday: 10:00 AM – 8:30 PM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>+91 96861 60365</t>
+          <t>+91 96203 14500</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7857795109075466448</t>
+          <t>https://maps.google.com/?cid=6417473757793715060</t>
         </is>
       </c>
     </row>
@@ -964,208 +952,216 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ramya Beauty Parlour</t>
+          <t>Face glow ladies Beauty Parlour</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cellar Floor, Amrutha Soudha Building, Maarigudi Rd, near Service Bus Stand, Surathkal, Mangaluru</t>
+          <t>Coastal Arcade, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:30 AM – 7:30 PM</t>
+          <t>Monday-Friday: 8:30 AM – 8:30 PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>+91 99000 16538</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>+91 97403 08545</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://face-glow-ladies-beauty-parlour.business.site/</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6474160817734898651</t>
+          <t>https://maps.google.com/?cid=4752085954908933186</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hair Studio Surathkal - Men's Professional Saloon</t>
+          <t>Ashwini's beauty saloon</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HNGC ICON CITY, Surathkal, Mangaluru</t>
+          <t>Naithangadi, Krishnapura, Surathkal, Kuthethur Colony</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Monday-Friday: 10:00 AM – 10:00 PM</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>Monday-Friday: 9:30 AM – 8:00 PM</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>+91 79751 36842</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>http://thehsbrand.com/</t>
+          <t>https://instagram.com/ashwini_s_beauty_saloon?igshid=Yzg5MTU1MDY=</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12810264553391565663</t>
+          <t>https://maps.google.com/?cid=7786938580125710858</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nandadeepa Supermarket</t>
+          <t>Ramya Beauty Parlour</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MRPL Rd, Ganeshpura, Katipalla, Mangaluru</t>
+          <t>Cellar Floor, Amrutha Soudha Building, Maarigudi Rd, near Service Bus Stand, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:00 AM – 9:00 PM</t>
+          <t>Monday-Friday: 9:30 AM – 7:30 PM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>+91 98805 03313</t>
+          <t>+91 99000 16538</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=1533251122845351717</t>
+          <t>https://maps.google.com/?cid=6474160817734898651</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GLITZZ the fancy hub</t>
+          <t>Nandadeepa Supermarket</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hosabettu, Surathkal, Mangaluru</t>
+          <t>MRPL Rd, Ganeshpura, Katipalla, Mangaluru</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Monday-Friday: 10:00 AM – 8:30 PM</t>
+          <t>Monday-Friday: 9:00 AM – 9:00 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>+91 96203 14500</t>
+          <t>+91 98805 03313</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6417473757793715060</t>
+          <t>https://maps.google.com/?cid=1533251122845351717</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LNS PRO-AESTHETIC</t>
+          <t>B'Plus Professional Unisex Salon</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rajashree Arcade Building, opp. to Vidhyadayanee School, Hosabettu, Surathkal, Mangaluru</t>
+          <t>1st floor, Shanthi sadan, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Monday-Friday: 11:00 AM – 7:00 PM</t>
+          <t>Monday-Friday: 9:00 AM – 8:30 PM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>+91 63626 10278</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/lns_pro_aesthetic?igsh=ZXZkbGlpa3N4M3ls&amp;utm_source=qr</t>
-        </is>
-      </c>
+          <t>+91 77956 63111</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12577564285674250446</t>
+          <t>https://maps.google.com/?cid=2213864925948255164</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brahmi Beauty Parlour</t>
+          <t>The Mirrored Unisex Salon</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Katipalla, Mangaluru</t>
+          <t>Ground Floor, Abhish Mall, near More Supermarket, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Monday-Friday: 10:00 AM – 8:30 PM</t>
+          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>+91 63647 71558</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>+91 824 350 0276</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>http://themirroredunisexsalon.com/?utm_source=gmb&amp;utm_medium=referral</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8939840050446087158</t>
+          <t>https://maps.google.com/?cid=3970264084842923578</t>
         </is>
       </c>
     </row>
